--- a/Gestion_de_Cursos/Archivos_importados/2024/2-2024/programa_institucional/programa_institucional_(Semana_3).xlsx
+++ b/Gestion_de_Cursos/Archivos_importados/2024/2-2024/programa_institucional/programa_institucional_(Semana_3).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samue\Documents\NetBeansProjects\DesarrolloAcademico\Gestion_de_Cursos\Archivos_importados\2024\2-2024\programa_institucional\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t xml:space="preserve">PROGRAMA INSTITUCIONAL DE ACTUALIZACIÓN PROFESIONAL Y FORMACIÓN DOCENTE  </t>
   </si>
@@ -212,11 +212,17 @@
   <si>
     <t>Diseños por sismos normatividad 2023</t>
   </si>
+  <si>
+    <t>Del 05 al 09 de agosto de 2024
+14:00 a 20:00 hrs
+Aula 10-11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -957,15 +963,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1">
@@ -1132,13 +1138,13 @@
         <v>33</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="5">
-        <v>30</v>
+      <c r="G12" s="5" t="n">
+        <v>30.0</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>32</v>
